--- a/biology/Médecine/Réseau_de_santé_Vitalité/Réseau_de_santé_Vitalité.xlsx
+++ b/biology/Médecine/Réseau_de_santé_Vitalité/Réseau_de_santé_Vitalité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_de_sant%C3%A9_Vitalit%C3%A9</t>
+          <t>Réseau_de_santé_Vitalité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Réseau de santé Vitalité (anglais : Vitalité Health Network) est l'une des deux entités administratives responsable des hôpitaux et des services de santé dans la province canadienne du Nouveau-Brunswick. Le Réseau de santé Vitalité, qui dépend du Ministère de la Santé du Gouvernement du Nouveau-Brunswick, couvre la région du nord et du sud-est de la province et gère 11 hôpitaux et 30 cliniques et centres médicaux.
 Son siège social se situe à Bathurst.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_de_sant%C3%A9_Vitalit%C3%A9</t>
+          <t>Réseau_de_santé_Vitalité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Hôpitaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hôpital régional Chaleur, Bathurst
 Hôpital de l'Enfant-Jésus, Caraquet
